--- a/nr-publish-ballot-2/ig/StructureDefinition-fr-core-encounter.xlsx
+++ b/nr-publish-ballot-2/ig/StructureDefinition-fr-core-encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-28T08:22:20+00:00</t>
+    <t>2026-01-28T13:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1864,7 +1864,7 @@
 There may be many levels in the hierachy, and this may only pic specific levels that are required for a specific usage scenario.</t>
   </si>
   <si>
-    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-physical-type|2.2.0-ballot-2</t>
+    <t>https://hl7.fr/ig/fhir/core/ValueSet/fr-core-vs-location-type|2.2.0-ballot-2</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
